--- a/Google Maps - PlayStore.xlsx
+++ b/Google Maps - PlayStore.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Google Drive\Engenharia de Software - UFC\LINCE\PRUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan Lima\Desktop\BIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="568">
   <si>
     <t>Ótimo Não me deixou na mão ainda!!!</t>
   </si>
@@ -1418,9 +1418,6 @@
     <t>Top Confiável</t>
   </si>
   <si>
-    <t xml:space="preserve">⭐⭐⭐ Na Rua Quintino Bocaiúva, Setor-Campinas em Goiânia Goiás, no final desta rua no encontro com Av, Castelo branco é contra não, já o GPS da esta rota como se fosse mão certa, fui multado lá, por falta de vcs atualizar esta rua </t>
-  </si>
-  <si>
     <t>Não consigo instalar app em Vodafone Smart 4 Turbo</t>
   </si>
   <si>
@@ -1502,9 +1499,6 @@
     <t>Bom porém não dá pra baixar os mapas no cartão de memória Botei também a opção de baixar o mapa inteiro do Brasil</t>
   </si>
   <si>
-    <t>😠😠😠😠😠 Nao gosto AFF</t>
-  </si>
-  <si>
     <t>Eu simplesmente não quero! Não preciso</t>
   </si>
   <si>
@@ -1914,6 +1908,44 @@
   </si>
   <si>
     <t>Amei</t>
+  </si>
+  <si>
+    <t>Bom D+ já me ajudou muito principalmente em lugares que não conheço</t>
+  </si>
+  <si>
+    <r>
+      <t>Amei , Este app é D+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Este app é maravilhoso e se vc não baixou baixe tenho certeza que vc vai da mais de 10 estrelas ,eu dou nota 10(dez)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Gostei!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sensacional! !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Rua Quintino Bocaiúva, Setor-Campinas em Goiânia Goiás, no final desta rua no encontro com Av, Castelo branco é contra não, já o GPS da esta rota como se fosse mão certa, fui multado lá, por falta de vcs atualizar esta rua </t>
+  </si>
+  <si>
+    <t>Satisfaz É boom d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nao gosto AFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ótimo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ótimo parabéns! </t>
   </si>
 </sst>
 </file>
@@ -3942,7 +3974,7 @@
     </row>
     <row r="300" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
@@ -6540,7 +6572,7 @@
     </row>
     <row r="347" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8323,7 @@
     </row>
     <row r="347" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -8303,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8364,7 +8396,7 @@
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I2" s="20"/>
     </row>
@@ -8387,7 +8419,7 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I3" s="20"/>
     </row>
@@ -8410,7 +8442,7 @@
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I4" s="20"/>
     </row>
@@ -8419,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>281</v>
+        <v>559</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
@@ -8433,7 +8465,7 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I5" s="20"/>
     </row>
@@ -8445,7 +8477,7 @@
         <v>381</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>378</v>
@@ -8454,13 +8486,13 @@
         <v>379</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>466</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>468</v>
       </c>
       <c r="I6" s="20"/>
     </row>
@@ -8482,10 +8514,10 @@
         <v>380</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I7" s="20"/>
     </row>
@@ -8497,20 +8529,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>377</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>380</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -8533,7 +8565,7 @@
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I9" s="20"/>
     </row>
@@ -8545,22 +8577,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>469</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>471</v>
       </c>
       <c r="I10" s="20"/>
     </row>
@@ -8582,10 +8614,10 @@
         <v>380</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I11" s="20"/>
     </row>
@@ -8607,10 +8639,10 @@
         <v>380</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I12" s="20"/>
     </row>
@@ -8633,7 +8665,7 @@
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I13" s="20"/>
     </row>
@@ -8656,7 +8688,7 @@
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I14" s="20"/>
     </row>
@@ -8679,7 +8711,7 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I15" s="20"/>
     </row>
@@ -8702,7 +8734,7 @@
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I16" s="20"/>
     </row>
@@ -8721,11 +8753,11 @@
         <v>379</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I17" s="20"/>
     </row>
@@ -8748,7 +8780,7 @@
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I18" s="20"/>
     </row>
@@ -8771,7 +8803,7 @@
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I19" s="20"/>
     </row>
@@ -8790,10 +8822,10 @@
         <v>379</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -8817,7 +8849,7 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I21" s="20"/>
     </row>
@@ -8829,19 +8861,19 @@
         <v>17</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -8864,10 +8896,10 @@
         <v>380</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I23" s="20"/>
     </row>
@@ -8890,7 +8922,7 @@
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I24" s="20"/>
     </row>
@@ -8902,20 +8934,20 @@
         <v>20</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I25" s="20"/>
     </row>
@@ -8927,19 +8959,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -8952,22 +8984,22 @@
         <v>387</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I27" s="20"/>
     </row>
@@ -8980,17 +9012,17 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I28" s="20"/>
     </row>
@@ -9013,7 +9045,7 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I29" s="20"/>
     </row>
@@ -9035,10 +9067,10 @@
         <v>380</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I30" s="20"/>
     </row>
@@ -9061,7 +9093,7 @@
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I31" s="20"/>
     </row>
@@ -9084,7 +9116,7 @@
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I32" s="20"/>
     </row>
@@ -9096,22 +9128,22 @@
         <v>29</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I33" s="20"/>
     </row>
@@ -9133,7 +9165,7 @@
         <v>380</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -9157,16 +9189,16 @@
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>289</v>
+        <v>561</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
@@ -9180,7 +9212,7 @@
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I36" s="20"/>
     </row>
@@ -9203,7 +9235,7 @@
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I37" s="20"/>
     </row>
@@ -9215,19 +9247,19 @@
         <v>33</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -9251,7 +9283,7 @@
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I39" s="20"/>
     </row>
@@ -9264,22 +9296,22 @@
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9301,7 +9333,7 @@
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I41" s="20"/>
     </row>
@@ -9324,7 +9356,7 @@
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I42" s="20"/>
     </row>
@@ -9336,19 +9368,19 @@
         <v>38</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -9361,19 +9393,19 @@
         <v>39</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
@@ -9397,7 +9429,7 @@
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I45" s="20"/>
     </row>
@@ -9410,16 +9442,16 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -9443,7 +9475,7 @@
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I47" s="20"/>
     </row>
@@ -9456,19 +9488,19 @@
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I48" s="20"/>
     </row>
@@ -9491,7 +9523,7 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I49" s="20"/>
     </row>
@@ -9514,7 +9546,7 @@
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I50" s="20"/>
     </row>
@@ -9537,7 +9569,7 @@
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I51" s="20"/>
     </row>
@@ -9560,7 +9592,7 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I52" s="20"/>
     </row>
@@ -9583,7 +9615,7 @@
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I53" s="20"/>
     </row>
@@ -9595,19 +9627,19 @@
         <v>50</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -9630,10 +9662,10 @@
         <v>380</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I55" s="20"/>
     </row>
@@ -9656,7 +9688,7 @@
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I56" s="20"/>
     </row>
@@ -9679,7 +9711,7 @@
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I57" s="20"/>
     </row>
@@ -9702,7 +9734,7 @@
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I58" s="20"/>
     </row>
@@ -9714,16 +9746,16 @@
         <v>55</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -9748,7 +9780,7 @@
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I60" s="20"/>
     </row>
@@ -9771,7 +9803,7 @@
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I61" s="20"/>
     </row>
@@ -9783,19 +9815,19 @@
         <v>58</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -9818,10 +9850,10 @@
         <v>380</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I63" s="20"/>
     </row>
@@ -9844,7 +9876,7 @@
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I64" s="20"/>
     </row>
@@ -9856,22 +9888,22 @@
         <v>61</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I65" s="20"/>
     </row>
@@ -9894,7 +9926,7 @@
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I66" s="20"/>
     </row>
@@ -9917,7 +9949,7 @@
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I67" s="20"/>
     </row>
@@ -9929,23 +9961,23 @@
         <v>392</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H68" s="20"/>
       <c r="I68" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9967,7 +9999,7 @@
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I69" s="20"/>
     </row>
@@ -9990,7 +10022,7 @@
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I70" s="20"/>
     </row>
@@ -10013,7 +10045,7 @@
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I71" s="20"/>
     </row>
@@ -10025,19 +10057,19 @@
         <v>67</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -10061,16 +10093,16 @@
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>292</v>
+        <v>560</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="16" t="s">
@@ -10084,7 +10116,7 @@
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I74" s="20"/>
     </row>
@@ -10107,7 +10139,7 @@
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -10130,16 +10162,16 @@
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>293</v>
+        <v>562</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="16" t="s">
@@ -10153,7 +10185,7 @@
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I77" s="20"/>
     </row>
@@ -10176,7 +10208,7 @@
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I78" s="20"/>
     </row>
@@ -10192,16 +10224,16 @@
         <v>377</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I79" s="20"/>
     </row>
@@ -10224,7 +10256,7 @@
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I80" s="20"/>
     </row>
@@ -10247,7 +10279,7 @@
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I81" s="20"/>
     </row>
@@ -10270,7 +10302,7 @@
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I82" s="20"/>
     </row>
@@ -10293,7 +10325,7 @@
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I83" s="20"/>
     </row>
@@ -10316,7 +10348,7 @@
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I84" s="20"/>
     </row>
@@ -10339,7 +10371,7 @@
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I85" s="20"/>
     </row>
@@ -10362,7 +10394,7 @@
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I86" s="20"/>
     </row>
@@ -10384,10 +10416,10 @@
         <v>380</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I87" s="20"/>
     </row>
@@ -10410,7 +10442,7 @@
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I88" s="20"/>
     </row>
@@ -10433,7 +10465,7 @@
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I89" s="20"/>
     </row>
@@ -10442,22 +10474,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>395</v>
+        <v>563</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H90" s="20"/>
       <c r="I90" s="20"/>
@@ -10481,7 +10513,7 @@
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I91" s="20"/>
     </row>
@@ -10504,7 +10536,7 @@
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I92" s="20"/>
     </row>
@@ -10523,13 +10555,13 @@
         <v>379</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H93" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I93" s="20"/>
     </row>
@@ -10538,25 +10570,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H94" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I94" s="20"/>
     </row>
@@ -10575,13 +10607,13 @@
         <v>379</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I95" s="20"/>
     </row>
@@ -10600,10 +10632,10 @@
         <v>379</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H96" s="20"/>
       <c r="I96" s="20"/>
@@ -10627,7 +10659,7 @@
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I97" s="20"/>
     </row>
@@ -10650,7 +10682,7 @@
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I98" s="20"/>
     </row>
@@ -10673,7 +10705,7 @@
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I99" s="20"/>
     </row>
@@ -10696,7 +10728,7 @@
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I100" s="20"/>
     </row>
@@ -10708,19 +10740,19 @@
         <v>98</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H101" s="20"/>
       <c r="I101" s="20"/>
@@ -10744,7 +10776,7 @@
       </c>
       <c r="G102" s="20"/>
       <c r="H102" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I102" s="20"/>
     </row>
@@ -10753,20 +10785,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
@@ -10776,25 +10808,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G104" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H104" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H104" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I104" s="20"/>
     </row>
@@ -10817,7 +10849,7 @@
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I105" s="20"/>
     </row>
@@ -10829,22 +10861,22 @@
         <v>103</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G106" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H106" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H106" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I106" s="20"/>
     </row>
@@ -10867,7 +10899,7 @@
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I107" s="20"/>
     </row>
@@ -10879,19 +10911,19 @@
         <v>104</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
@@ -10915,7 +10947,7 @@
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I109" s="20"/>
     </row>
@@ -10937,10 +10969,10 @@
         <v>380</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I110" s="20"/>
     </row>
@@ -10963,7 +10995,7 @@
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I111" s="20"/>
     </row>
@@ -10986,7 +11018,7 @@
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I112" s="20"/>
     </row>
@@ -11009,7 +11041,7 @@
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I113" s="20"/>
     </row>
@@ -11021,25 +11053,25 @@
         <v>109</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -11057,10 +11089,10 @@
         <v>379</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
@@ -11073,7 +11105,7 @@
         <v>111</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>378</v>
@@ -11082,10 +11114,10 @@
         <v>379</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
@@ -11098,19 +11130,19 @@
         <v>112</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
@@ -11134,7 +11166,7 @@
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I118" s="20"/>
     </row>
@@ -11157,7 +11189,7 @@
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I119" s="20"/>
     </row>
@@ -11180,7 +11212,7 @@
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I120" s="20"/>
     </row>
@@ -11189,7 +11221,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="16" t="s">
@@ -11203,7 +11235,7 @@
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I121" s="20"/>
     </row>
@@ -11226,7 +11258,7 @@
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I122" s="20"/>
     </row>
@@ -11235,7 +11267,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="16" t="s">
@@ -11245,13 +11277,13 @@
         <v>379</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G123" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H123" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H123" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I123" s="20"/>
     </row>
@@ -11260,7 +11292,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="16" t="s">
@@ -11270,13 +11302,13 @@
         <v>379</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G124" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H124" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H124" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I124" s="20"/>
     </row>
@@ -11285,10 +11317,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>378</v>
@@ -11297,13 +11329,13 @@
         <v>379</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I125" s="20"/>
     </row>
@@ -11312,7 +11344,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="16" t="s">
@@ -11322,13 +11354,13 @@
         <v>379</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G126" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H126" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H126" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I126" s="20"/>
     </row>
@@ -11337,10 +11369,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>378</v>
@@ -11349,13 +11381,13 @@
         <v>379</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I127" s="20"/>
     </row>
@@ -11378,7 +11410,7 @@
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I128" s="20"/>
     </row>
@@ -11387,7 +11419,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="16" t="s">
@@ -11401,7 +11433,7 @@
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I129" s="20"/>
     </row>
@@ -11424,7 +11456,7 @@
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I130" s="20"/>
     </row>
@@ -11433,7 +11465,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="16" t="s">
@@ -11443,13 +11475,13 @@
         <v>379</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G131" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H131" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I131" s="20"/>
     </row>
@@ -11458,20 +11490,20 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
@@ -11495,7 +11527,7 @@
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I133" s="20"/>
     </row>
@@ -11507,19 +11539,19 @@
         <v>125</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
@@ -11543,7 +11575,7 @@
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I135" s="20"/>
     </row>
@@ -11555,7 +11587,7 @@
         <v>127</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>378</v>
@@ -11564,10 +11596,10 @@
         <v>379</v>
       </c>
       <c r="F136" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
@@ -11591,7 +11623,7 @@
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I137" s="20"/>
     </row>
@@ -11600,10 +11632,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>378</v>
@@ -11612,13 +11644,13 @@
         <v>379</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G138" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H138" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H138" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I138" s="20"/>
     </row>
@@ -11641,7 +11673,7 @@
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I139" s="20"/>
     </row>
@@ -11653,19 +11685,19 @@
         <v>130</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
@@ -11685,13 +11717,13 @@
         <v>379</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G141" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H141" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H141" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I141" s="20"/>
     </row>
@@ -11714,7 +11746,7 @@
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I142" s="20"/>
     </row>
@@ -11723,25 +11755,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G143" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H143" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H143" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I143" s="20"/>
     </row>
@@ -11764,7 +11796,7 @@
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I144" s="20"/>
     </row>
@@ -11787,7 +11819,7 @@
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I145" s="20"/>
     </row>
@@ -11796,22 +11828,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
@@ -11835,7 +11867,7 @@
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I147" s="20"/>
     </row>
@@ -11844,22 +11876,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H148" s="20"/>
       <c r="I148" s="20"/>
@@ -11869,25 +11901,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E149" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I149" s="20"/>
     </row>
@@ -11896,23 +11928,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F150" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I150" s="20"/>
     </row>
@@ -11935,7 +11967,7 @@
       </c>
       <c r="G151" s="20"/>
       <c r="H151" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I151" s="20"/>
     </row>
@@ -11947,16 +11979,16 @@
         <v>143</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -11967,22 +11999,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E153" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F153" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
@@ -12006,7 +12038,7 @@
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I154" s="20"/>
     </row>
@@ -12015,25 +12047,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E155" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G155" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H155" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H155" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -12042,7 +12074,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="16" t="s">
@@ -12056,7 +12088,7 @@
       </c>
       <c r="G156" s="20"/>
       <c r="H156" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I156" s="20"/>
     </row>
@@ -12065,7 +12097,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C157" s="17"/>
       <c r="D157" s="16" t="s">
@@ -12079,7 +12111,7 @@
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I157" s="20"/>
     </row>
@@ -12102,7 +12134,7 @@
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I158" s="20"/>
     </row>
@@ -12125,7 +12157,7 @@
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I159" s="20"/>
     </row>
@@ -12148,7 +12180,7 @@
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I160" s="20"/>
     </row>
@@ -12167,10 +12199,10 @@
         <v>379</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
@@ -12190,10 +12222,10 @@
         <v>379</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H162" s="20"/>
       <c r="I162" s="20"/>
@@ -12213,10 +12245,10 @@
         <v>379</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H163" s="20"/>
       <c r="I163" s="20"/>
@@ -12226,22 +12258,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H164" s="20"/>
       <c r="I164" s="20"/>
@@ -12251,20 +12283,20 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H165" s="20"/>
       <c r="I165" s="20"/>
@@ -12274,20 +12306,20 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E166" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G166" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H166" s="20"/>
       <c r="I166" s="20"/>
@@ -12311,16 +12343,16 @@
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>314</v>
+        <v>564</v>
       </c>
       <c r="C168" s="17"/>
       <c r="D168" s="16" t="s">
@@ -12334,7 +12366,7 @@
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I168" s="20"/>
     </row>
@@ -12353,10 +12385,10 @@
         <v>379</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H169" s="20"/>
       <c r="I169" s="20"/>
@@ -12380,7 +12412,7 @@
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I170" s="20"/>
     </row>
@@ -12389,22 +12421,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H171" s="20"/>
       <c r="I171" s="20"/>
@@ -12414,25 +12446,25 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G172" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H172" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H172" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I172" s="20"/>
     </row>
@@ -12441,22 +12473,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H173" s="20"/>
       <c r="I173" s="20"/>
@@ -12480,7 +12512,7 @@
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I174" s="20"/>
     </row>
@@ -12489,7 +12521,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>423</v>
+        <v>565</v>
       </c>
       <c r="C175" s="17"/>
       <c r="D175" s="16" t="s">
@@ -12499,10 +12531,10 @@
         <v>379</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H175" s="20"/>
       <c r="I175" s="20"/>
@@ -12512,7 +12544,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C176" s="18"/>
       <c r="D176" s="16" t="s">
@@ -12522,10 +12554,10 @@
         <v>379</v>
       </c>
       <c r="F176" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G176" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="G176" s="20" t="s">
-        <v>467</v>
       </c>
       <c r="H176" s="20"/>
       <c r="I176" s="20"/>
@@ -12535,20 +12567,20 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C177" s="17"/>
       <c r="D177" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F177" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G177" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="G177" s="20" t="s">
-        <v>467</v>
       </c>
       <c r="H177" s="20"/>
       <c r="I177" s="20"/>
@@ -12558,22 +12590,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D178" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F178" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
@@ -12583,22 +12615,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D179" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H179" s="20"/>
       <c r="I179" s="20"/>
@@ -12622,7 +12654,7 @@
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I180" s="20"/>
     </row>
@@ -12645,7 +12677,7 @@
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I181" s="20"/>
     </row>
@@ -12657,23 +12689,23 @@
         <v>174</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H182" s="20"/>
       <c r="I182" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -12685,16 +12717,16 @@
       </c>
       <c r="C183" s="17"/>
       <c r="D183" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F183" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
@@ -12714,10 +12746,10 @@
         <v>379</v>
       </c>
       <c r="F184" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G184" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="G184" s="20" t="s">
-        <v>467</v>
       </c>
       <c r="H184" s="20"/>
       <c r="I184" s="20"/>
@@ -12730,7 +12762,7 @@
         <v>177</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>378</v>
@@ -12739,10 +12771,10 @@
         <v>379</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H185" s="20"/>
       <c r="I185" s="20"/>
@@ -12766,7 +12798,7 @@
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I186" s="20"/>
     </row>
@@ -12789,7 +12821,7 @@
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I187" s="20"/>
     </row>
@@ -12812,7 +12844,7 @@
       </c>
       <c r="G188" s="20"/>
       <c r="H188" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I188" s="20"/>
     </row>
@@ -12835,7 +12867,7 @@
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I189" s="20"/>
     </row>
@@ -12844,22 +12876,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G190" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H190" s="20"/>
       <c r="I190" s="20"/>
@@ -12869,22 +12901,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F191" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
@@ -12908,7 +12940,7 @@
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I192" s="20"/>
     </row>
@@ -12931,7 +12963,7 @@
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I193" s="20"/>
     </row>
@@ -12954,7 +12986,7 @@
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I194" s="20"/>
     </row>
@@ -12963,7 +12995,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C195" s="17"/>
       <c r="D195" s="16" t="s">
@@ -12973,10 +13005,10 @@
         <v>379</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H195" s="20"/>
       <c r="I195" s="20"/>
@@ -12986,10 +13018,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D196" s="16" t="s">
         <v>378</v>
@@ -12998,10 +13030,10 @@
         <v>379</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H196" s="20"/>
       <c r="I196" s="20"/>
@@ -13025,7 +13057,7 @@
       </c>
       <c r="G197" s="20"/>
       <c r="H197" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I197" s="20"/>
     </row>
@@ -13034,7 +13066,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C198" s="17"/>
       <c r="D198" s="16" t="s">
@@ -13048,7 +13080,7 @@
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I198" s="20"/>
     </row>
@@ -13071,7 +13103,7 @@
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I199" s="20"/>
     </row>
@@ -13090,10 +13122,10 @@
         <v>379</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H200" s="20"/>
       <c r="I200" s="20"/>
@@ -13107,16 +13139,16 @@
       </c>
       <c r="C201" s="17"/>
       <c r="D201" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H201" s="20"/>
       <c r="I201" s="20"/>
@@ -13140,7 +13172,7 @@
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I202" s="20"/>
     </row>
@@ -13149,20 +13181,20 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C203" s="17"/>
       <c r="D203" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H203" s="20"/>
       <c r="I203" s="20"/>
@@ -13182,10 +13214,10 @@
         <v>379</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H204" s="20"/>
       <c r="I204" s="20"/>
@@ -13205,10 +13237,10 @@
         <v>379</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H205" s="20"/>
       <c r="I205" s="20"/>
@@ -13232,7 +13264,7 @@
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I206" s="20"/>
     </row>
@@ -13244,22 +13276,22 @@
         <v>198</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E207" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F207" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G207" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H207" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H207" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I207" s="20"/>
     </row>
@@ -13282,7 +13314,7 @@
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I208" s="20"/>
     </row>
@@ -13291,22 +13323,22 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H209" s="20"/>
       <c r="I209" s="20"/>
@@ -13329,7 +13361,7 @@
         <v>380</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H210" s="20"/>
       <c r="I210" s="20"/>
@@ -13353,7 +13385,7 @@
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I211" s="20"/>
     </row>
@@ -13376,7 +13408,7 @@
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I212" s="20"/>
     </row>
@@ -13385,7 +13417,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C213" s="17"/>
       <c r="D213" s="16" t="s">
@@ -13399,7 +13431,7 @@
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I213" s="20"/>
     </row>
@@ -13422,7 +13454,7 @@
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I214" s="20"/>
     </row>
@@ -13445,7 +13477,7 @@
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I215" s="20"/>
     </row>
@@ -13468,7 +13500,7 @@
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I216" s="20"/>
     </row>
@@ -13477,22 +13509,22 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E217" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F217" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G217" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="G217" s="20" t="s">
-        <v>467</v>
       </c>
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
@@ -13502,10 +13534,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>378</v>
@@ -13514,10 +13546,10 @@
         <v>379</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
@@ -13541,7 +13573,7 @@
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I219" s="20"/>
     </row>
@@ -13564,7 +13596,7 @@
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I220" s="20"/>
     </row>
@@ -13573,22 +13605,22 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E221" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H221" s="20"/>
       <c r="I221" s="20"/>
@@ -13601,7 +13633,7 @@
         <v>214</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>378</v>
@@ -13610,20 +13642,20 @@
         <v>379</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G222" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H222" s="20"/>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="10">
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>330</v>
+        <v>567</v>
       </c>
       <c r="C223" s="17"/>
       <c r="D223" s="16" t="s">
@@ -13637,7 +13669,7 @@
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I223" s="20"/>
     </row>
@@ -13660,7 +13692,7 @@
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I224" s="20"/>
     </row>
@@ -13683,7 +13715,7 @@
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I225" s="20"/>
     </row>
@@ -13706,7 +13738,7 @@
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I226" s="20"/>
     </row>
@@ -13729,7 +13761,7 @@
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I227" s="20"/>
     </row>
@@ -13748,10 +13780,10 @@
         <v>379</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H228" s="20"/>
       <c r="I228" s="20"/>
@@ -13775,7 +13807,7 @@
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I229" s="20"/>
     </row>
@@ -13798,7 +13830,7 @@
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I230" s="20"/>
     </row>
@@ -13810,7 +13842,7 @@
         <v>223</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>378</v>
@@ -13819,10 +13851,10 @@
         <v>379</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H231" s="20"/>
       <c r="I231" s="20"/>
@@ -13832,20 +13864,20 @@
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C232" s="17"/>
       <c r="D232" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G232" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H232" s="20"/>
       <c r="I232" s="20"/>
@@ -13855,10 +13887,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>377</v>
@@ -13870,7 +13902,7 @@
         <v>380</v>
       </c>
       <c r="G233" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H233" s="20"/>
       <c r="I233" s="20"/>
@@ -13880,10 +13912,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D234" s="16" t="s">
         <v>377</v>
@@ -13896,7 +13928,7 @@
       </c>
       <c r="G234" s="20"/>
       <c r="H234" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I234" s="20"/>
     </row>
@@ -13908,19 +13940,19 @@
         <v>225</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
@@ -13940,10 +13972,10 @@
         <v>379</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G236" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H236" s="20"/>
       <c r="I236" s="20"/>
@@ -13953,7 +13985,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C237" s="17"/>
       <c r="D237" s="16" t="s">
@@ -13963,13 +13995,13 @@
         <v>379</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G237" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H237" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H237" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I237" s="20"/>
     </row>
@@ -13978,10 +14010,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>378</v>
@@ -13990,10 +14022,10 @@
         <v>379</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H238" s="20"/>
       <c r="I238" s="20"/>
@@ -14017,7 +14049,7 @@
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I239" s="20"/>
     </row>
@@ -14026,34 +14058,34 @@
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G240" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H240" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="10">
         <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>336</v>
+        <v>566</v>
       </c>
       <c r="C241" s="17"/>
       <c r="D241" s="16" t="s">
@@ -14067,7 +14099,7 @@
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I241" s="20"/>
     </row>
@@ -14076,7 +14108,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C242" s="17"/>
       <c r="D242" s="16" t="s">
@@ -14090,7 +14122,7 @@
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I242" s="20"/>
     </row>
@@ -14102,19 +14134,19 @@
         <v>338</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E243" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H243" s="20"/>
       <c r="I243" s="20"/>
@@ -14124,7 +14156,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C244" s="17"/>
       <c r="D244" s="16" t="s">
@@ -14138,18 +14170,18 @@
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I244" s="20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="10">
         <v>244</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="C245" s="17"/>
       <c r="D245" s="16" t="s">
@@ -14163,7 +14195,7 @@
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I245" s="20"/>
     </row>
@@ -14186,7 +14218,7 @@
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I246" s="20"/>
     </row>
@@ -14195,10 +14227,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D247" s="16" t="s">
         <v>378</v>
@@ -14207,10 +14239,10 @@
         <v>379</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H247" s="20"/>
       <c r="I247" s="20"/>
@@ -14234,7 +14266,7 @@
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I248" s="20"/>
     </row>
@@ -14243,23 +14275,23 @@
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C249" s="17"/>
       <c r="D249" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G249" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H249" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I249" s="20"/>
     </row>
@@ -14282,7 +14314,7 @@
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I250" s="20"/>
     </row>
@@ -14305,7 +14337,7 @@
       </c>
       <c r="G251" s="20"/>
       <c r="H251" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I251" s="20"/>
     </row>
@@ -14318,16 +14350,16 @@
       </c>
       <c r="C252" s="17"/>
       <c r="D252" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G252" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H252" s="20"/>
       <c r="I252" s="20"/>
@@ -14340,19 +14372,19 @@
         <v>240</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E253" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H253" s="20"/>
       <c r="I253" s="20"/>
@@ -14365,19 +14397,19 @@
         <v>241</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E254" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H254" s="20"/>
       <c r="I254" s="20"/>
@@ -14401,7 +14433,7 @@
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I255" s="20"/>
     </row>
@@ -14414,7 +14446,7 @@
       </c>
       <c r="C256" s="17"/>
       <c r="D256" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>379</v>
@@ -14423,7 +14455,7 @@
         <v>380</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H256" s="20"/>
       <c r="I256" s="20"/>
@@ -14436,7 +14468,7 @@
         <v>244</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D257" s="16" t="s">
         <v>378</v>
@@ -14466,7 +14498,7 @@
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I258" s="20"/>
     </row>
@@ -14475,22 +14507,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E259" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F259" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H259" s="20"/>
       <c r="I259" s="20"/>
@@ -14514,7 +14546,7 @@
       </c>
       <c r="G260" s="20"/>
       <c r="H260" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I260" s="20"/>
     </row>
@@ -14526,7 +14558,7 @@
         <v>248</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>378</v>
@@ -14535,10 +14567,10 @@
         <v>379</v>
       </c>
       <c r="F261" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
@@ -14562,7 +14594,7 @@
       </c>
       <c r="G262" s="20"/>
       <c r="H262" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I262" s="20"/>
     </row>
@@ -14571,7 +14603,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C263" s="17"/>
       <c r="D263" s="16" t="s">
@@ -14585,7 +14617,7 @@
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I263" s="20"/>
     </row>
@@ -14594,20 +14626,20 @@
         <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C264" s="17"/>
       <c r="D264" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E264" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F264" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H264" s="20"/>
       <c r="I264" s="20"/>
@@ -14617,25 +14649,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D265" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E265" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F265" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H265" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I265" s="20"/>
     </row>
@@ -14644,25 +14676,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D266" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E266" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F266" s="20" t="s">
         <v>380</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H266" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I266" s="20"/>
     </row>
@@ -14685,7 +14717,7 @@
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I267" s="20"/>
     </row>
@@ -14708,7 +14740,7 @@
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I268" s="20"/>
     </row>
@@ -14720,19 +14752,19 @@
         <v>253</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H269" s="20"/>
       <c r="I269" s="20"/>
@@ -14742,10 +14774,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D270" s="16" t="s">
         <v>378</v>
@@ -14754,10 +14786,10 @@
         <v>379</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H270" s="20"/>
       <c r="I270" s="20"/>
@@ -14767,10 +14799,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D271" s="16" t="s">
         <v>378</v>
@@ -14779,10 +14811,10 @@
         <v>379</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H271" s="20"/>
       <c r="I271" s="20"/>
@@ -14802,10 +14834,10 @@
         <v>379</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H272" s="20"/>
       <c r="I272" s="20"/>
@@ -14829,7 +14861,7 @@
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I273" s="20"/>
     </row>
@@ -14838,22 +14870,22 @@
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E274" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F274" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
@@ -14866,19 +14898,19 @@
         <v>257</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H275" s="20"/>
       <c r="I275" s="20"/>
@@ -14902,7 +14934,7 @@
       </c>
       <c r="G276" s="20"/>
       <c r="H276" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I276" s="20"/>
     </row>
@@ -14921,13 +14953,13 @@
         <v>379</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G277" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H277" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H277" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I277" s="20"/>
     </row>
@@ -14950,7 +14982,7 @@
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I278" s="20"/>
     </row>
@@ -14973,7 +15005,7 @@
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I279" s="20"/>
     </row>
@@ -14982,7 +15014,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C280" s="17"/>
       <c r="D280" s="16" t="s">
@@ -14996,7 +15028,7 @@
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I280" s="20"/>
     </row>
@@ -15005,7 +15037,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C281" s="17"/>
       <c r="D281" s="16" t="s">
@@ -15019,7 +15051,7 @@
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I281" s="20"/>
     </row>
@@ -15042,7 +15074,7 @@
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I282" s="20"/>
     </row>
@@ -15051,25 +15083,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D283" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E283" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G283" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="H283" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="H283" s="20" t="s">
-        <v>468</v>
       </c>
       <c r="I283" s="20"/>
     </row>
@@ -15081,7 +15113,7 @@
         <v>348</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D284" s="16" t="s">
         <v>378</v>
@@ -15090,10 +15122,10 @@
         <v>379</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H284" s="20"/>
       <c r="I284" s="20"/>
@@ -15117,7 +15149,7 @@
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I285" s="20"/>
     </row>
@@ -15126,7 +15158,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C286" s="17"/>
       <c r="D286" s="16" t="s">
@@ -15140,7 +15172,7 @@
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I286" s="20"/>
     </row>
@@ -15163,7 +15195,7 @@
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I287" s="20"/>
     </row>
@@ -15186,7 +15218,7 @@
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I288" s="20"/>
     </row>
@@ -15195,7 +15227,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C289" s="17"/>
       <c r="D289" s="16" t="s">
@@ -15209,7 +15241,7 @@
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I289" s="20"/>
     </row>
@@ -15222,7 +15254,7 @@
       </c>
       <c r="C290" s="17"/>
       <c r="D290" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E290" s="20" t="s">
         <v>379</v>
@@ -15231,10 +15263,10 @@
         <v>380</v>
       </c>
       <c r="G290" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H290" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I290" s="20"/>
     </row>
@@ -15257,7 +15289,7 @@
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I291" s="20"/>
     </row>
@@ -15280,7 +15312,7 @@
       </c>
       <c r="G292" s="20"/>
       <c r="H292" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I292" s="20"/>
     </row>
@@ -15299,13 +15331,13 @@
         <v>379</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G293" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H293" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I293" s="20"/>
     </row>
@@ -15328,7 +15360,7 @@
       </c>
       <c r="G294" s="20"/>
       <c r="H294" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I294" s="20"/>
     </row>
@@ -15337,22 +15369,22 @@
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
@@ -15362,22 +15394,22 @@
         <v>295</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D296" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E296" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F296" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
@@ -15387,22 +15419,22 @@
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D297" s="16" t="s">
         <v>378</v>
       </c>
       <c r="E297" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H297" s="20"/>
       <c r="I297" s="20"/>
@@ -15426,7 +15458,7 @@
       </c>
       <c r="G298" s="20"/>
       <c r="H298" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I298" s="20"/>
     </row>
@@ -15449,7 +15481,7 @@
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I299" s="20"/>
     </row>
@@ -15472,7 +15504,7 @@
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I300" s="20"/>
     </row>
@@ -15494,7 +15526,7 @@
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I301" s="20"/>
     </row>
@@ -15516,7 +15548,7 @@
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -15537,7 +15569,7 @@
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -15558,7 +15590,7 @@
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -15566,7 +15598,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D305" s="16" t="s">
         <v>377</v>
@@ -15579,7 +15611,7 @@
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
